--- a/data/trans_orig/P20B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F581AB0-D90D-455E-81C7-5E323DA6704F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8963D94-397D-4C60-BD1C-F762007E4D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D2E4CFA-5A10-43D9-B034-2B038341A806}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66520C30-972A-4F75-A4D9-4D44B04C5004}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="507">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
   </si>
   <si>
     <t>3,18%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,92%</t>
+    <t>17,51%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>86,08%</t>
+    <t>82,49%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>90,02%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>25,04%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>74,96%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>87,88%</t>
   </si>
   <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>38,04%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
   </si>
   <si>
     <t>61,96%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>17,03%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
   </si>
   <si>
     <t>82,97%</t>
   </si>
   <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>61,89%</t>
   </si>
   <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>71,66%</t>
   </si>
   <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,49 @@
     <t>45,26%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>70,17%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
   </si>
   <si>
     <t>54,74%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>29,83%</t>
   </si>
   <si>
     <t>52,2%</t>
   </si>
   <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,10 +362,10 @@
     <t>18,1%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>24,87%</t>
@@ -386,19 +380,19 @@
     <t>22,13%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>75,13%</t>
@@ -413,64 +407,64 @@
     <t>77,87%</t>
   </si>
   <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -482,1054 +476,1090 @@
     <t>30,43%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
   </si>
   <si>
     <t>11,42%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>69,57%</t>
   </si>
   <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>88,58%</t>
   </si>
   <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>81,31%</t>
   </si>
   <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>90,87%</t>
   </si>
   <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
   </si>
   <si>
     <t>32,39%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
   </si>
   <si>
     <t>67,05%</t>
   </si>
   <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>67,98%</t>
   </si>
   <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>67,61%</t>
   </si>
   <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>24,76%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>23,22%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>76,78%</t>
   </si>
   <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>72,41%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50E3A62-F662-4322-B21A-967FCB73ABD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7EE721-39B0-4BA5-B1E8-7E4F65BC0901}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2688,10 +2718,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2700,13 +2730,13 @@
         <v>11792</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2715,13 +2745,13 @@
         <v>19892</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2766,13 @@
         <v>9797</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2751,13 +2781,13 @@
         <v>12880</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2766,13 +2796,13 @@
         <v>22677</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2858,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2840,13 +2870,13 @@
         <v>7673</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -2855,13 +2885,13 @@
         <v>15491</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2870,13 +2900,13 @@
         <v>23164</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2921,13 @@
         <v>34709</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -2906,13 +2936,13 @@
         <v>46807</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -2921,13 +2951,13 @@
         <v>81517</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3025,13 @@
         <v>35163</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -3010,13 +3040,13 @@
         <v>50158</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -3025,13 +3055,13 @@
         <v>85321</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3076,13 @@
         <v>98819</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>189</v>
@@ -3061,13 +3091,13 @@
         <v>198209</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>287</v>
@@ -3076,13 +3106,13 @@
         <v>297028</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,7 +3168,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +3190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381A69A1-CD34-4068-96A8-AF636A64D17F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36930800-B7A4-4B16-B079-742E1FC9050D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3177,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3284,13 +3314,13 @@
         <v>4507</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3299,13 +3329,13 @@
         <v>4020</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3314,13 +3344,13 @@
         <v>8527</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3365,13 @@
         <v>10302</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -3350,13 +3380,13 @@
         <v>31187</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -3365,13 +3395,13 @@
         <v>41489</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3469,13 @@
         <v>5517</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3454,13 +3484,13 @@
         <v>4955</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3469,13 +3499,13 @@
         <v>10472</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3520,13 @@
         <v>24006</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -3505,13 +3535,13 @@
         <v>80269</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3520,13 +3550,13 @@
         <v>104275</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3624,13 @@
         <v>12259</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3609,13 +3639,13 @@
         <v>17898</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3624,13 +3654,13 @@
         <v>30158</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3675,13 @@
         <v>24944</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -3660,13 +3690,13 @@
         <v>37999</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -3675,13 +3705,13 @@
         <v>62942</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3779,13 @@
         <v>13685</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3764,13 +3794,13 @@
         <v>25717</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3779,13 +3809,13 @@
         <v>39403</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3830,13 @@
         <v>19268</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -3815,13 +3845,13 @@
         <v>25167</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -3830,13 +3860,13 @@
         <v>44435</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3934,13 @@
         <v>9288</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3919,13 +3949,13 @@
         <v>11882</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3934,13 +3964,13 @@
         <v>21170</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3985,13 @@
         <v>18392</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3970,13 +4000,13 @@
         <v>17558</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -3985,13 +4015,13 @@
         <v>35950</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4077,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4059,13 +4089,13 @@
         <v>16498</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4074,13 +4104,13 @@
         <v>17790</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -4089,13 +4119,13 @@
         <v>34288</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4140,13 @@
         <v>49099</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -4125,13 +4155,13 @@
         <v>60093</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -4140,13 +4170,13 @@
         <v>109192</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4244,13 @@
         <v>61754</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -4229,13 +4259,13 @@
         <v>82264</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>132</v>
@@ -4244,13 +4274,13 @@
         <v>144017</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4295,13 @@
         <v>146011</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>236</v>
@@ -4280,13 +4310,13 @@
         <v>252272</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>371</v>
@@ -4295,13 +4325,13 @@
         <v>398284</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,7 +4387,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +4409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C391C2-CD40-4134-A80E-FFB9C7551F3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DDC710-19C0-40B9-94C3-EFEDC1CC027F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4396,7 +4426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4503,13 +4533,13 @@
         <v>3140</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4518,13 +4548,13 @@
         <v>2434</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4533,13 +4563,13 @@
         <v>5574</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4584,13 @@
         <v>9198</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -4569,10 +4599,10 @@
         <v>30527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4584,13 +4614,13 @@
         <v>39725</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4688,13 @@
         <v>1809</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4673,13 +4703,13 @@
         <v>4697</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4688,13 +4718,13 @@
         <v>6506</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +4739,10 @@
         <v>11485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4724,13 +4754,13 @@
         <v>55968</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -4739,13 +4769,13 @@
         <v>67453</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4843,13 @@
         <v>10086</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4828,13 +4858,13 @@
         <v>7629</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4843,13 +4873,13 @@
         <v>17714</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,10 +4894,10 @@
         <v>13135</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>314</v>
@@ -5266,7 +5296,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5308,13 +5338,13 @@
         <v>38247</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5359,13 @@
         <v>44269</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -5344,13 +5374,13 @@
         <v>45706</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -5359,13 +5389,13 @@
         <v>89975</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5463,13 @@
         <v>54751</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -5448,13 +5478,13 @@
         <v>65647</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -5463,13 +5493,13 @@
         <v>120398</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5514,13 @@
         <v>107726</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>188</v>
@@ -5499,13 +5529,13 @@
         <v>203884</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>291</v>
@@ -5514,13 +5544,13 @@
         <v>311610</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,7 +5606,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E56799-36A8-4186-B8D2-7B0E5D489293}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AA682-A9DE-4D97-AE45-E3AC53D9DFD7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5615,7 +5645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,10 +5755,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5737,13 +5767,13 @@
         <v>3618</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5752,13 +5782,13 @@
         <v>3618</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,7 +5806,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5788,10 +5818,10 @@
         <v>21788</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5803,10 +5833,10 @@
         <v>23140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5877,13 +5907,13 @@
         <v>4752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>402</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5892,13 +5922,13 @@
         <v>2795</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5907,13 +5937,13 @@
         <v>7547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>407</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5958,13 @@
         <v>9966</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -5943,10 +5973,10 @@
         <v>38369</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -5958,13 +5988,13 @@
         <v>48335</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,7 +6223,7 @@
         <v>436</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -6202,13 +6232,13 @@
         <v>13516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -6217,13 +6247,13 @@
         <v>28271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,16 +6265,16 @@
         <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>24216</v>
+        <v>24215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -6253,13 +6283,13 @@
         <v>17705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -6268,13 +6298,13 @@
         <v>41920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,7 +6316,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="7">
-        <v>38970</v>
+        <v>38969</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6342,13 +6372,13 @@
         <v>18287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6357,13 +6387,13 @@
         <v>9025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -6372,13 +6402,13 @@
         <v>27311</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6423,13 @@
         <v>31313</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -6408,13 +6438,13 @@
         <v>22437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -6423,13 +6453,13 @@
         <v>53751</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,7 +6515,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6497,13 +6527,13 @@
         <v>22376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -6512,13 +6542,13 @@
         <v>16056</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>474</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -6527,13 +6557,13 @@
         <v>38432</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6578,13 @@
         <v>47772</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -6563,13 +6593,13 @@
         <v>53094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>271</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>170</v>
@@ -6578,13 +6608,13 @@
         <v>100866</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6682,13 @@
         <v>65223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -6667,13 +6697,13 @@
         <v>53717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>162</v>
@@ -6682,13 +6712,13 @@
         <v>118940</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6733,13 @@
         <v>131178</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="H23" s="7">
         <v>259</v>
@@ -6718,13 +6748,13 @@
         <v>182649</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="M23" s="7">
         <v>410</v>
@@ -6733,13 +6763,13 @@
         <v>313826</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,7 +6825,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8963D94-397D-4C60-BD1C-F762007E4D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33578DC9-8A18-45E2-ADB1-F42973CF4511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66520C30-972A-4F75-A4D9-4D44B04C5004}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B04EAB5-E38C-4842-AC23-5B10B5892819}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="497">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
   </si>
   <si>
     <t>3,18%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,51%</t>
+    <t>19,74%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>82,49%</t>
+    <t>80,26%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>90,02%</t>
   </si>
   <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>25,04%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>6,79%</t>
   </si>
   <si>
     <t>74,96%</t>
   </si>
   <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>87,88%</t>
   </si>
   <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>93,21%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +191,55 @@
     <t>38,04%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
   <si>
     <t>61,96%</t>
   </si>
   <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +248,55 @@
     <t>17,03%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>82,97%</t>
   </si>
   <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>61,89%</t>
   </si>
   <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>71,66%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,930 +305,912 @@
     <t>45,26%</t>
   </si>
   <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
     <t>70,17%</t>
   </si>
   <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>0%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
   </si>
   <si>
     <t>85,76%</t>
   </si>
   <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
     <t>45,49%</t>
   </si>
   <si>
@@ -1253,9 +1229,6 @@
     <t>70,4%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
     <t>24,78%</t>
   </si>
   <si>
@@ -1275,9 +1248,6 @@
   </si>
   <si>
     <t>92,14%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
   </si>
   <si>
     <t>75,22%</t>
@@ -1971,7 +1941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7EE721-39B0-4BA5-B1E8-7E4F65BC0901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23868249-EB48-4BF9-9FEE-8E903F916BE2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2286,7 +2256,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,13 +2271,13 @@
         <v>17519</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -2316,13 +2286,13 @@
         <v>67445</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>80</v>
@@ -2331,13 +2301,13 @@
         <v>84964</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,7 +2363,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2405,13 +2375,13 @@
         <v>6796</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2420,13 +2390,13 @@
         <v>6248</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2435,13 +2405,13 @@
         <v>13044</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2426,13 @@
         <v>11068</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2471,13 +2441,13 @@
         <v>27629</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -2486,13 +2456,13 @@
         <v>38697</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,7 +2518,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2560,13 +2530,13 @@
         <v>3806</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2575,13 +2545,13 @@
         <v>9853</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2590,13 +2560,13 @@
         <v>13659</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,13 +2581,13 @@
         <v>18540</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -2626,13 +2596,13 @@
         <v>16003</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -2641,13 +2611,13 @@
         <v>34543</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,7 +2673,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2715,13 +2685,13 @@
         <v>8100</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2730,13 +2700,13 @@
         <v>11792</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2745,13 +2715,13 @@
         <v>19892</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2736,13 @@
         <v>9797</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3190,7 +3160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36930800-B7A4-4B16-B079-742E1FC9050D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEC6FB6-CF42-49D0-8ECF-76A37705D23E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3582,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3767,7 +3737,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3800,7 +3770,7 @@
         <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3809,13 +3779,13 @@
         <v>39403</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3800,13 @@
         <v>19268</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -3845,13 +3815,13 @@
         <v>25167</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -3860,13 +3830,13 @@
         <v>44435</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,7 +3892,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3934,13 +3904,13 @@
         <v>9288</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3949,13 +3919,13 @@
         <v>11882</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3964,13 +3934,13 @@
         <v>21170</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3955,13 @@
         <v>18392</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -4000,13 +3970,13 @@
         <v>17558</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -4015,13 +3985,13 @@
         <v>35950</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4059,13 @@
         <v>16498</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4104,13 +4074,13 @@
         <v>17790</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -4119,13 +4089,13 @@
         <v>34288</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4110,13 @@
         <v>49099</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -4155,13 +4125,13 @@
         <v>60093</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -4170,13 +4140,13 @@
         <v>109192</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4214,13 @@
         <v>61754</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -4259,13 +4229,13 @@
         <v>82264</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>132</v>
@@ -4274,13 +4244,13 @@
         <v>144017</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4265,13 @@
         <v>146011</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>236</v>
@@ -4310,13 +4280,13 @@
         <v>252272</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>371</v>
@@ -4325,13 +4295,13 @@
         <v>398284</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DDC710-19C0-40B9-94C3-EFEDC1CC027F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C45F478-8249-40CC-9646-B1557EF19E3D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4426,7 +4396,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4533,13 +4503,13 @@
         <v>3140</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4548,13 +4518,13 @@
         <v>2434</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4563,13 +4533,13 @@
         <v>5574</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4554,13 @@
         <v>9198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -4599,10 +4569,10 @@
         <v>30527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4614,13 +4584,13 @@
         <v>39725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4658,13 @@
         <v>1809</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4703,13 +4673,13 @@
         <v>4697</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>50</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4718,13 +4688,13 @@
         <v>6506</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,10 +4709,10 @@
         <v>11485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4754,13 +4724,13 @@
         <v>55968</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -4769,13 +4739,13 @@
         <v>67453</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,7 +4801,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4843,13 +4813,13 @@
         <v>10086</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4858,13 +4828,13 @@
         <v>7629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4873,13 +4843,13 @@
         <v>17714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4864,13 @@
         <v>13135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4909,13 +4879,13 @@
         <v>41675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -4924,13 +4894,13 @@
         <v>54811</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,7 +4956,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4998,13 +4968,13 @@
         <v>9755</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5013,13 +4983,13 @@
         <v>14551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5028,13 +4998,13 @@
         <v>24306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5019,13 @@
         <v>12657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -5064,13 +5034,13 @@
         <v>17014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5079,13 +5049,13 @@
         <v>29671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5111,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5153,13 +5123,13 @@
         <v>15802</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5168,13 +5138,13 @@
         <v>12248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -5183,13 +5153,13 @@
         <v>28050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,13 +5174,13 @@
         <v>16982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5219,13 +5189,13 @@
         <v>12993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -5234,13 +5204,13 @@
         <v>29975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5278,13 @@
         <v>14159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -5323,13 +5293,13 @@
         <v>24088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -5338,13 +5308,13 @@
         <v>38247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5329,13 @@
         <v>44269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>367</v>
+        <v>66</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -5374,13 +5344,13 @@
         <v>45706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -5389,13 +5359,13 @@
         <v>89975</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5433,13 @@
         <v>54751</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -5478,13 +5448,13 @@
         <v>65647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -5493,13 +5463,13 @@
         <v>120398</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5484,13 @@
         <v>107726</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>188</v>
@@ -5529,13 +5499,13 @@
         <v>203884</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>291</v>
@@ -5544,13 +5514,13 @@
         <v>311610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,7 +5598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AA682-A9DE-4D97-AE45-E3AC53D9DFD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB96741-94E5-412C-8614-0EC5D2EE1AFC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5645,7 +5615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,10 +5725,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>393</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5767,13 +5737,13 @@
         <v>3618</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5782,13 +5752,13 @@
         <v>3618</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,7 +5776,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>397</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5818,10 +5788,10 @@
         <v>21788</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5833,10 +5803,10 @@
         <v>23140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5907,13 +5877,13 @@
         <v>4752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5922,13 +5892,13 @@
         <v>2795</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>404</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5937,13 +5907,13 @@
         <v>7547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5928,13 @@
         <v>9966</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -5973,10 +5943,10 @@
         <v>38369</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>412</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -5988,13 +5958,13 @@
         <v>48335</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,7 +6020,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6062,13 +6032,13 @@
         <v>5054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -6077,13 +6047,13 @@
         <v>8708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -6092,13 +6062,13 @@
         <v>13761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6083,13 @@
         <v>16559</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -6128,13 +6098,13 @@
         <v>29254</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -6143,13 +6113,13 @@
         <v>45814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6175,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6217,13 +6187,13 @@
         <v>14754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -6232,13 +6202,13 @@
         <v>13516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -6247,13 +6217,13 @@
         <v>28271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6238,13 @@
         <v>24215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -6283,13 +6253,13 @@
         <v>17705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -6298,13 +6268,13 @@
         <v>41920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6330,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6372,13 +6342,13 @@
         <v>18287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6387,13 +6357,13 @@
         <v>9025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -6402,13 +6372,13 @@
         <v>27311</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6393,13 @@
         <v>31313</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -6438,13 +6408,13 @@
         <v>22437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -6453,13 +6423,13 @@
         <v>53751</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6497,13 @@
         <v>22376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -6542,13 +6512,13 @@
         <v>16056</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -6557,13 +6527,13 @@
         <v>38432</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6548,13 @@
         <v>47772</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -6593,13 +6563,13 @@
         <v>53094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>170</v>
@@ -6608,13 +6578,13 @@
         <v>100866</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6652,13 @@
         <v>65223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -6697,13 +6667,13 @@
         <v>53717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>162</v>
@@ -6712,13 +6682,13 @@
         <v>118940</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6703,13 @@
         <v>131178</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="H23" s="7">
         <v>259</v>
@@ -6748,13 +6718,13 @@
         <v>182649</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M23" s="7">
         <v>410</v>
@@ -6763,13 +6733,13 @@
         <v>313826</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P20B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33578DC9-8A18-45E2-ADB1-F42973CF4511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1EE7A25-53A0-4C04-BE27-63E3F34E3490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B04EAB5-E38C-4842-AC23-5B10B5892819}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C6EEF6F-3CAC-4DEE-8FD3-CC687D140732}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,16 +71,16 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
   <si>
     <t>3,18%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,74%</t>
+    <t>13,92%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>80,26%</t>
+    <t>86,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>90,02%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1396 +140,1396 @@
     <t>25,04%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
+    <t>22,07%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
   </si>
   <si>
     <t>40,28%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
+    <t>28,4%</t>
   </si>
   <si>
     <t>62,14%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
+    <t>77,93%</t>
   </si>
   <si>
     <t>56,71%</t>
   </si>
   <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
   <si>
     <t>59,72%</t>
   </si>
   <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>71,6%</t>
   </si>
   <si>
     <t>36,87%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
+    <t>17,25%</t>
   </si>
   <si>
     <t>33,69%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
   </si>
   <si>
     <t>63,13%</t>
   </si>
   <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>82,75%</t>
   </si>
   <si>
     <t>66,31%</t>
   </si>
   <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
   </si>
   <si>
     <t>31,9%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
   </si>
   <si>
     <t>68,1%</t>
   </si>
   <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>72,41%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23868249-EB48-4BF9-9FEE-8E903F916BE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660BF1E2-9B24-43D6-A1BF-7BAB0FFFC0F6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2256,7 +2256,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2271,13 @@
         <v>17519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -2286,13 +2286,13 @@
         <v>67445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>80</v>
@@ -2301,13 +2301,13 @@
         <v>84964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2375,13 +2375,13 @@
         <v>6796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2390,13 +2390,13 @@
         <v>6248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2405,13 +2405,13 @@
         <v>13044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,13 +2426,13 @@
         <v>11068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2441,13 +2441,13 @@
         <v>27629</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -2456,13 +2456,13 @@
         <v>38697</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,7 +2518,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2530,13 +2530,13 @@
         <v>3806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2545,13 +2545,13 @@
         <v>9853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2560,13 +2560,13 @@
         <v>13659</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2581,13 @@
         <v>18540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -2596,13 +2596,13 @@
         <v>16003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -2611,13 +2611,13 @@
         <v>34543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,7 +2673,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2685,13 +2685,13 @@
         <v>8100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2700,13 +2700,13 @@
         <v>11792</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2715,13 +2715,13 @@
         <v>19892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2736,13 @@
         <v>9797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2751,13 +2751,13 @@
         <v>12880</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2766,13 +2766,13 @@
         <v>22677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2828,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2840,13 +2840,13 @@
         <v>7673</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -2855,13 +2855,13 @@
         <v>15491</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2870,13 +2870,13 @@
         <v>23164</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2891,13 @@
         <v>34709</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -2906,13 +2906,13 @@
         <v>46807</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -2921,13 +2921,13 @@
         <v>81517</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2995,13 @@
         <v>35163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -3010,13 +3010,13 @@
         <v>50158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -3025,13 +3025,13 @@
         <v>85321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3046,13 @@
         <v>98819</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>189</v>
@@ -3061,13 +3061,13 @@
         <v>198209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>287</v>
@@ -3076,13 +3076,13 @@
         <v>297028</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,7 +3138,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +3160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEC6FB6-CF42-49D0-8ECF-76A37705D23E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B87D2A-0413-45D2-8E3B-E8F3D8E0B9FB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3177,7 +3177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3284,13 +3284,13 @@
         <v>4507</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3299,13 +3299,13 @@
         <v>4020</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3314,13 +3314,13 @@
         <v>8527</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3335,13 @@
         <v>10302</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -3350,13 +3350,13 @@
         <v>31187</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -3365,13 +3365,13 @@
         <v>41489</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3439,13 @@
         <v>5517</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3454,13 +3454,13 @@
         <v>4955</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3469,13 +3469,13 @@
         <v>10472</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3490,13 @@
         <v>24006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -3505,13 +3505,13 @@
         <v>80269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3520,13 +3520,13 @@
         <v>104275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3582,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3594,13 +3594,13 @@
         <v>12259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3609,13 +3609,13 @@
         <v>17898</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3624,13 +3624,13 @@
         <v>30158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3645,13 @@
         <v>24944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -3660,13 +3660,13 @@
         <v>37999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -3675,13 +3675,13 @@
         <v>62942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3749,13 +3749,13 @@
         <v>13685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3764,13 +3764,13 @@
         <v>25717</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3779,13 +3779,13 @@
         <v>39403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3800,13 @@
         <v>19268</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -3815,13 +3815,13 @@
         <v>25167</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -3830,13 +3830,13 @@
         <v>44435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,7 +3892,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3904,13 +3904,13 @@
         <v>9288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3919,13 +3919,13 @@
         <v>11882</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3934,13 +3934,13 @@
         <v>21170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3955,13 @@
         <v>18392</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3970,13 +3970,13 @@
         <v>17558</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -3985,13 +3985,13 @@
         <v>35950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4047,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4059,13 +4059,13 @@
         <v>16498</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4074,13 +4074,13 @@
         <v>17790</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -4089,13 +4089,13 @@
         <v>34288</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4110,13 @@
         <v>49099</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -4125,13 +4125,13 @@
         <v>60093</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -4140,13 +4140,13 @@
         <v>109192</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4214,13 @@
         <v>61754</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -4229,13 +4229,13 @@
         <v>82264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>132</v>
@@ -4244,13 +4244,13 @@
         <v>144017</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4265,13 @@
         <v>146011</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>236</v>
@@ -4280,13 +4280,13 @@
         <v>252272</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>371</v>
@@ -4295,13 +4295,13 @@
         <v>398284</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,7 +4357,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +4379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C45F478-8249-40CC-9646-B1557EF19E3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94C38C5-166A-4FD1-AF26-F6DB89075E6F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4396,7 +4396,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4503,13 +4503,13 @@
         <v>3140</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4518,13 +4518,13 @@
         <v>2434</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4533,13 +4533,13 @@
         <v>5574</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4554,13 @@
         <v>9198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -4569,10 +4569,10 @@
         <v>30527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4584,13 +4584,13 @@
         <v>39725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4658,13 @@
         <v>1809</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4673,13 +4673,13 @@
         <v>4697</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4688,13 +4688,13 @@
         <v>6506</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +4709,10 @@
         <v>11485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4724,13 +4724,13 @@
         <v>55968</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -4739,13 +4739,13 @@
         <v>67453</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,7 +4801,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4813,13 +4813,13 @@
         <v>10086</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4828,13 +4828,13 @@
         <v>7629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4843,13 +4843,13 @@
         <v>17714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4864,13 @@
         <v>13135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4879,13 +4879,13 @@
         <v>41675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -4894,13 +4894,13 @@
         <v>54811</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +4956,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4968,13 +4968,13 @@
         <v>9755</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4983,13 +4983,13 @@
         <v>14551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4998,13 +4998,13 @@
         <v>24306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5019,13 @@
         <v>12657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -5034,13 +5034,13 @@
         <v>17014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5049,13 +5049,13 @@
         <v>29671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5111,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5123,13 +5123,13 @@
         <v>15802</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5138,13 +5138,13 @@
         <v>12248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -5153,13 +5153,13 @@
         <v>28050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5174,13 @@
         <v>16982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5189,13 +5189,13 @@
         <v>12993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -5204,13 +5204,13 @@
         <v>29975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,7 +5266,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5278,13 +5278,13 @@
         <v>14159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -5293,13 +5293,13 @@
         <v>24088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -5308,13 +5308,13 @@
         <v>38247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5329,13 @@
         <v>44269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -5344,13 +5344,13 @@
         <v>45706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -5359,13 +5359,13 @@
         <v>89975</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5433,13 @@
         <v>54751</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -5448,13 +5448,13 @@
         <v>65647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -5463,13 +5463,13 @@
         <v>120398</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5484,13 @@
         <v>107726</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>188</v>
@@ -5499,13 +5499,13 @@
         <v>203884</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>291</v>
@@ -5514,13 +5514,13 @@
         <v>311610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,7 +5576,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB96741-94E5-412C-8614-0EC5D2EE1AFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FED88DB-4857-4D55-9DE6-8C525DA8FA68}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5615,7 +5615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,10 +5725,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>395</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5737,13 +5737,13 @@
         <v>3618</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5752,13 +5752,13 @@
         <v>3618</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,7 +5776,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5788,10 +5788,10 @@
         <v>21788</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5803,10 +5803,10 @@
         <v>23140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5877,13 +5877,13 @@
         <v>4752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>394</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5892,13 +5892,13 @@
         <v>2795</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>407</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5907,13 +5907,13 @@
         <v>7547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>398</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5928,13 @@
         <v>9966</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>402</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -5943,10 +5943,10 @@
         <v>38369</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>413</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -5958,13 +5958,13 @@
         <v>48335</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +6020,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6032,13 +6032,13 @@
         <v>5054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -6047,13 +6047,13 @@
         <v>8708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -6062,13 +6062,13 @@
         <v>13761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6083,13 @@
         <v>16559</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -6098,13 +6098,13 @@
         <v>29254</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -6113,13 +6113,13 @@
         <v>45814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6175,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6187,13 +6187,13 @@
         <v>14754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -6202,13 +6202,13 @@
         <v>13516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -6217,13 +6217,13 @@
         <v>28271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,16 +6235,16 @@
         <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>24215</v>
+        <v>24216</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>435</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -6253,13 +6253,13 @@
         <v>17705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -6268,13 +6268,13 @@
         <v>41920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,7 +6286,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="7">
-        <v>38969</v>
+        <v>38970</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6342,13 +6342,13 @@
         <v>18287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6357,13 +6357,13 @@
         <v>9025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>448</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -6372,13 +6372,13 @@
         <v>27311</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6393,13 @@
         <v>31313</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -6408,13 +6408,13 @@
         <v>22437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -6423,13 +6423,13 @@
         <v>53751</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6497,13 +6497,13 @@
         <v>22376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -6512,13 +6512,13 @@
         <v>16056</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>464</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -6527,13 +6527,13 @@
         <v>38432</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6548,13 @@
         <v>47772</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -6563,7 +6563,7 @@
         <v>53094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>473</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>474</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1EE7A25-53A0-4C04-BE27-63E3F34E3490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D4517F4-79BB-4BA6-9E65-5EE425E88E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C6EEF6F-3CAC-4DEE-8FD3-CC687D140732}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D9493858-AC2D-4905-A90D-C7B2074F8F05}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="566">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>25,04%</t>
@@ -191,7 +191,7 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>38,04%</t>
@@ -248,7 +248,7 @@
     <t>85,23%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>17,03%</t>
@@ -305,7 +305,7 @@
     <t>83,19%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>45,26%</t>
@@ -362,808 +362,955 @@
     <t>68,53%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>75,13%</t>
   </si>
   <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>33,7%</t>
@@ -1229,307 +1376,367 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
   </si>
   <si>
     <t>71,6%</t>
   </si>
   <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
 </sst>
 </file>
@@ -1941,8 +2148,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660BF1E2-9B24-43D6-A1BF-7BAB0FFFC0F6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE545E4-98A3-4195-AE3A-C4584A4F85F8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2834,10 +3041,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>7673</v>
+        <v>5006</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2849,10 +3056,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>15491</v>
+        <v>9962</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2861,22 +3068,22 @@
         <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="7">
+        <v>16</v>
+      </c>
+      <c r="N19" s="7">
+        <v>14968</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>24</v>
-      </c>
-      <c r="N19" s="7">
-        <v>23164</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,49 +3092,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>34709</v>
+        <v>17864</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>21</v>
+      </c>
+      <c r="I20" s="7">
+        <v>19437</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7">
-        <v>46807</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>40</v>
+      </c>
+      <c r="N20" s="7">
+        <v>37301</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>82</v>
-      </c>
-      <c r="N20" s="7">
-        <v>81517</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D21" s="7">
-        <v>42382</v>
+        <v>22870</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2951,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I21" s="7">
-        <v>62298</v>
+        <v>29399</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2966,10 +3173,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="N21" s="7">
-        <v>104681</v>
+        <v>52269</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2983,55 +3190,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>35163</v>
+        <v>2666</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5529</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>52</v>
-      </c>
-      <c r="I22" s="7">
-        <v>50158</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>8</v>
+      </c>
+      <c r="N22" s="7">
+        <v>8196</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="7">
-        <v>89</v>
-      </c>
-      <c r="N22" s="7">
-        <v>85321</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,49 +3247,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>98819</v>
+        <v>16846</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>25</v>
+      </c>
+      <c r="I23" s="7">
+        <v>27371</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>189</v>
-      </c>
-      <c r="I23" s="7">
-        <v>198209</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>42</v>
+      </c>
+      <c r="N23" s="7">
+        <v>44216</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="M23" s="7">
-        <v>287</v>
-      </c>
-      <c r="N23" s="7">
-        <v>297028</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,63 +3298,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19512</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7">
+        <v>32900</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>50</v>
+      </c>
+      <c r="N24" s="7">
+        <v>52412</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35163</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>52</v>
+      </c>
+      <c r="I25" s="7">
+        <v>50158</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>89</v>
+      </c>
+      <c r="N25" s="7">
+        <v>85321</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>98</v>
+      </c>
+      <c r="D26" s="7">
+        <v>98819</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>189</v>
+      </c>
+      <c r="I26" s="7">
+        <v>198209</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>287</v>
+      </c>
+      <c r="N26" s="7">
+        <v>297028</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>135</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>133982</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>241</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>248367</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>376</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>382349</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3160,8 +3523,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B87D2A-0413-45D2-8E3B-E8F3D8E0B9FB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82795CB5-4F82-4021-8369-4B3511765752}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3177,7 +3540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3284,13 +3647,13 @@
         <v>4507</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3299,13 +3662,13 @@
         <v>4020</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3314,13 +3677,13 @@
         <v>8527</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3698,13 @@
         <v>10302</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -3350,13 +3713,13 @@
         <v>31187</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -3365,13 +3728,13 @@
         <v>41489</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3802,13 @@
         <v>5517</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3454,13 +3817,13 @@
         <v>4955</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3469,13 +3832,13 @@
         <v>10472</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3853,13 @@
         <v>24006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -3505,13 +3868,13 @@
         <v>80269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3520,13 +3883,13 @@
         <v>104275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3957,13 @@
         <v>12259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3609,13 +3972,13 @@
         <v>17898</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3624,13 +3987,13 @@
         <v>30158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +4008,13 @@
         <v>24944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -3660,13 +4023,13 @@
         <v>37999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -3675,13 +4038,13 @@
         <v>62942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +4112,13 @@
         <v>13685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3764,13 +4127,13 @@
         <v>25717</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3779,13 +4142,13 @@
         <v>39403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +4163,13 @@
         <v>19268</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -3815,13 +4178,13 @@
         <v>25167</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -3830,13 +4193,13 @@
         <v>44435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +4267,13 @@
         <v>9288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3919,13 +4282,13 @@
         <v>11882</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3934,13 +4297,13 @@
         <v>21170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +4318,13 @@
         <v>18392</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3970,13 +4333,13 @@
         <v>17558</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -3985,13 +4348,13 @@
         <v>35950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,49 +4416,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>16498</v>
+        <v>10124</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>17790</v>
+        <v>11095</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>34288</v>
+        <v>21220</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,49 +4467,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>49099</v>
+        <v>19296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I20" s="7">
-        <v>60093</v>
+        <v>22480</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="N20" s="7">
-        <v>109192</v>
+        <v>41775</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,10 +4518,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>65597</v>
+        <v>29420</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4170,10 +4533,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I21" s="7">
-        <v>77883</v>
+        <v>33575</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4185,10 +4548,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="N21" s="7">
-        <v>143480</v>
+        <v>62995</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4202,55 +4565,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>61754</v>
+        <v>6373</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>82264</v>
+        <v>6695</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="N22" s="7">
-        <v>144017</v>
+        <v>13068</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,49 +4622,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="D23" s="7">
-        <v>146011</v>
+        <v>29804</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="I23" s="7">
-        <v>252272</v>
+        <v>37613</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>371</v>
+        <v>60</v>
       </c>
       <c r="N23" s="7">
-        <v>398284</v>
+        <v>67417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,63 +4673,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>36177</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>40</v>
+      </c>
+      <c r="I24" s="7">
+        <v>44308</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>71</v>
+      </c>
+      <c r="N24" s="7">
+        <v>80485</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>57</v>
+      </c>
+      <c r="D25" s="7">
+        <v>61754</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>75</v>
+      </c>
+      <c r="I25" s="7">
+        <v>82264</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>132</v>
+      </c>
+      <c r="N25" s="7">
+        <v>144017</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>135</v>
+      </c>
+      <c r="D26" s="7">
+        <v>146011</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>236</v>
+      </c>
+      <c r="I26" s="7">
+        <v>252272</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>371</v>
+      </c>
+      <c r="N26" s="7">
+        <v>398284</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>192</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>207765</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>311</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>334536</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>503</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>542301</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4379,8 +4898,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94C38C5-166A-4FD1-AF26-F6DB89075E6F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116F72C6-E0DC-4145-ACC6-70D4C3C5BA29}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4396,7 +4915,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4503,13 +5022,13 @@
         <v>3140</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4518,13 +5037,13 @@
         <v>2434</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4533,13 +5052,13 @@
         <v>5574</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +5073,13 @@
         <v>9198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -4569,10 +5088,10 @@
         <v>30527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4584,13 +5103,13 @@
         <v>39725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +5177,13 @@
         <v>1809</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4673,13 +5192,13 @@
         <v>4697</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4688,13 +5207,13 @@
         <v>6506</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +5228,10 @@
         <v>11485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4724,13 +5243,13 @@
         <v>55968</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -4739,13 +5258,13 @@
         <v>67453</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +5332,13 @@
         <v>10086</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4828,13 +5347,13 @@
         <v>7629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4843,13 +5362,13 @@
         <v>17714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +5383,13 @@
         <v>13135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4879,13 +5398,13 @@
         <v>41675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -4894,13 +5413,13 @@
         <v>54811</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +5487,13 @@
         <v>9755</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4983,13 +5502,13 @@
         <v>14551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4998,13 +5517,13 @@
         <v>24306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5538,13 @@
         <v>12657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -5034,13 +5553,13 @@
         <v>17014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5049,13 +5568,13 @@
         <v>29671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5642,13 @@
         <v>15802</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5138,13 +5657,13 @@
         <v>12248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -5153,13 +5672,13 @@
         <v>28050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5693,13 @@
         <v>16982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5189,13 +5708,13 @@
         <v>12993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -5204,13 +5723,13 @@
         <v>29975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,49 +5791,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>14159</v>
+        <v>8742</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13189</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M19" s="7">
         <v>21</v>
       </c>
-      <c r="I19" s="7">
-        <v>24088</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="M19" s="7">
-        <v>35</v>
-      </c>
       <c r="N19" s="7">
-        <v>38247</v>
+        <v>21931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,49 +5842,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>44269</v>
+        <v>27899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I20" s="7">
-        <v>45706</v>
+        <v>16040</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="N20" s="7">
-        <v>89975</v>
+        <v>43939</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,10 +5893,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7">
-        <v>58428</v>
+        <v>36641</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5389,10 +5908,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I21" s="7">
-        <v>69794</v>
+        <v>29229</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5404,10 +5923,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="N21" s="7">
-        <v>128222</v>
+        <v>65870</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5421,55 +5940,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>54751</v>
+        <v>5417</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>65647</v>
+        <v>10899</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="N22" s="7">
-        <v>120398</v>
+        <v>16316</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,49 +5997,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>107726</v>
+        <v>16370</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="I23" s="7">
-        <v>203884</v>
+        <v>29666</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>311610</v>
+        <v>46036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,63 +6048,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>21787</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>31</v>
+      </c>
+      <c r="I24" s="7">
+        <v>40565</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>56</v>
+      </c>
+      <c r="N24" s="7">
+        <v>62352</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7">
+        <v>54751</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="7">
+        <v>59</v>
+      </c>
+      <c r="I25" s="7">
+        <v>65647</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="7">
+        <v>110</v>
+      </c>
+      <c r="N25" s="7">
+        <v>120398</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>103</v>
+      </c>
+      <c r="D26" s="7">
+        <v>107726</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>188</v>
+      </c>
+      <c r="I26" s="7">
+        <v>203884</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M26" s="7">
+        <v>291</v>
+      </c>
+      <c r="N26" s="7">
+        <v>311610</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>154</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>162477</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>247</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>269531</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>401</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>432008</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5598,8 +6273,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FED88DB-4857-4D55-9DE6-8C525DA8FA68}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBA211C-434A-4A71-88CD-CA804A769567}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5615,7 +6290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,40 +6400,40 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>3618</v>
+        <v>3220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +6445,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1352</v>
+        <v>1454</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5785,13 +6460,13 @@
         <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>21788</v>
+        <v>18894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5800,13 +6475,13 @@
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>23140</v>
+        <v>20348</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5821,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1352</v>
+        <v>1454</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5836,7 +6511,7 @@
         <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>25406</v>
+        <v>22114</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5851,7 +6526,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>26758</v>
+        <v>23568</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5874,46 +6549,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>4752</v>
+        <v>5013</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2795</v>
+        <v>2698</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>7547</v>
+        <v>7710</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>458</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +6600,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>9966</v>
+        <v>10110</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -5940,13 +6615,13 @@
         <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>38369</v>
+        <v>34695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -5955,16 +6630,16 @@
         <v>44</v>
       </c>
       <c r="N8" s="7">
-        <v>48335</v>
+        <v>44805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>81</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,7 +6651,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>14718</v>
+        <v>15123</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5991,7 +6666,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="7">
-        <v>41164</v>
+        <v>37393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6006,7 +6681,7 @@
         <v>49</v>
       </c>
       <c r="N9" s="7">
-        <v>55882</v>
+        <v>52515</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6029,46 +6704,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5054</v>
+        <v>4987</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>8708</v>
+        <v>8132</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>13761</v>
+        <v>13119</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,46 +6755,46 @@
         <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>16559</v>
+        <v>16360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>29254</v>
+        <v>27631</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>45814</v>
+        <v>43991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,7 +6806,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="7">
-        <v>21613</v>
+        <v>21347</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6146,7 +6821,7 @@
         <v>57</v>
       </c>
       <c r="I12" s="7">
-        <v>37962</v>
+        <v>35763</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6161,7 +6836,7 @@
         <v>77</v>
       </c>
       <c r="N12" s="7">
-        <v>59575</v>
+        <v>57110</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6184,46 +6859,46 @@
         <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>14754</v>
+        <v>14241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>404</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>13516</v>
+        <v>12612</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>28271</v>
+        <v>26853</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>419</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,46 +6910,46 @@
         <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>24216</v>
+        <v>23239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>17705</v>
+        <v>16556</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
       </c>
       <c r="N14" s="7">
-        <v>41920</v>
+        <v>39795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,7 +6961,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="7">
-        <v>38970</v>
+        <v>37480</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6301,7 +6976,7 @@
         <v>51</v>
       </c>
       <c r="I15" s="7">
-        <v>31221</v>
+        <v>29168</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6316,7 +6991,7 @@
         <v>88</v>
       </c>
       <c r="N15" s="7">
-        <v>70191</v>
+        <v>66648</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6339,46 +7014,46 @@
         <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>18287</v>
+        <v>17243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>9025</v>
+        <v>8464</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>505</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>27311</v>
+        <v>25707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,46 +7065,46 @@
         <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>31313</v>
+        <v>29349</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>22437</v>
+        <v>20621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>513</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
       </c>
       <c r="N17" s="7">
-        <v>53751</v>
+        <v>49970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,7 +7116,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="7">
-        <v>49600</v>
+        <v>46592</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6456,7 +7131,7 @@
         <v>54</v>
       </c>
       <c r="I18" s="7">
-        <v>31462</v>
+        <v>29085</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6471,7 +7146,7 @@
         <v>109</v>
       </c>
       <c r="N18" s="7">
-        <v>81062</v>
+        <v>75677</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6491,49 +7166,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7">
+        <v>14629</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4742</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="M19" s="7">
         <v>34</v>
       </c>
-      <c r="D19" s="7">
-        <v>22376</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="H19" s="7">
-        <v>31</v>
-      </c>
-      <c r="I19" s="7">
-        <v>16056</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="M19" s="7">
-        <v>65</v>
-      </c>
       <c r="N19" s="7">
-        <v>38432</v>
+        <v>19371</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,49 +7217,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7">
-        <v>47772</v>
+        <v>20610</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>527</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="H20" s="7">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="I20" s="7">
-        <v>53094</v>
+        <v>17593</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>271</v>
+        <v>528</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="M20" s="7">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="N20" s="7">
-        <v>100866</v>
+        <v>38204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,10 +7268,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7">
-        <v>70148</v>
+        <v>35239</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6608,10 +7283,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="I21" s="7">
-        <v>69150</v>
+        <v>22335</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6623,10 +7298,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="N21" s="7">
-        <v>139298</v>
+        <v>57575</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6640,55 +7315,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>65223</v>
+        <v>6164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="H22" s="7">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>53717</v>
+        <v>9974</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="N22" s="7">
-        <v>118940</v>
+        <v>16138</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,49 +7372,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="D23" s="7">
-        <v>131178</v>
+        <v>24659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="H23" s="7">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="I23" s="7">
-        <v>182649</v>
+        <v>31010</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>492</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="M23" s="7">
-        <v>410</v>
+        <v>102</v>
       </c>
       <c r="N23" s="7">
-        <v>313826</v>
+        <v>55670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,63 +7423,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>51</v>
+      </c>
+      <c r="D24" s="7">
+        <v>30823</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>82</v>
+      </c>
+      <c r="I24" s="7">
+        <v>40984</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>133</v>
+      </c>
+      <c r="N24" s="7">
+        <v>71808</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>77</v>
+      </c>
+      <c r="D25" s="7">
+        <v>62276</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="H25" s="7">
+        <v>85</v>
+      </c>
+      <c r="I25" s="7">
+        <v>49843</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="M25" s="7">
+        <v>162</v>
+      </c>
+      <c r="N25" s="7">
+        <v>112120</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>151</v>
+      </c>
+      <c r="D26" s="7">
+        <v>125782</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H26" s="7">
+        <v>259</v>
+      </c>
+      <c r="I26" s="7">
+        <v>167000</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="M26" s="7">
+        <v>410</v>
+      </c>
+      <c r="N26" s="7">
+        <v>292782</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>228</v>
       </c>
-      <c r="D24" s="7">
-        <v>196401</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>188058</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>344</v>
       </c>
-      <c r="I24" s="7">
-        <v>236366</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>216843</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>572</v>
       </c>
-      <c r="N24" s="7">
-        <v>432766</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>404902</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
